--- a/Analysis/Tables/TableX_Shrinkage.xlsx
+++ b/Analysis/Tables/TableX_Shrinkage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-1365" yWindow="-135" windowWidth="16920" windowHeight="14475"/>
+    <workbookView xWindow="14190" yWindow="-15" windowWidth="16920" windowHeight="14475"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Table X The averaged coefficients of the predictor variables included in the best subset of models as in Table X. Calculated with shrinkage. NA: parameter was not included in the models</t>
   </si>
@@ -200,6 +200,12 @@
   </si>
   <si>
     <t>Family</t>
+  </si>
+  <si>
+    <t>Poisson</t>
+  </si>
+  <si>
+    <t>Log-Normal</t>
   </si>
 </sst>
 </file>
@@ -266,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -274,8 +280,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -579,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -635,10 +644,18 @@
       <c r="D6" s="2">
         <v>1.0303775080448101</v>
       </c>
+      <c r="E6" s="2">
+        <v>2.3724271709823701</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.1365051365501</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
@@ -650,6 +667,12 @@
       <c r="D8" s="2">
         <v>2.2450174607110802</v>
       </c>
+      <c r="E8" s="2">
+        <v>1.60684205759026</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.93071535008755002</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
@@ -661,6 +684,12 @@
       <c r="D9" s="2">
         <v>-1.14744463525977</v>
       </c>
+      <c r="E9" s="2">
+        <v>-0.27873313430593599</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-0.116133801256026</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
@@ -672,6 +701,12 @@
       <c r="D10" s="2">
         <v>-0.686546510392675</v>
       </c>
+      <c r="E10" s="2">
+        <v>0.19862720119400101</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-0.48669885560624998</v>
+      </c>
     </row>
     <row r="11" spans="2:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
@@ -683,10 +718,18 @@
       <c r="D11" s="2">
         <v>0.117835136545155</v>
       </c>
+      <c r="E11" s="2">
+        <v>1.09061360975141E-2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-0.16364643848872601</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
@@ -698,6 +741,12 @@
       <c r="D13" s="2">
         <v>1.0176695208366899</v>
       </c>
+      <c r="E13" s="2">
+        <v>3.7176627095715099E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.699571207598084</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -709,10 +758,18 @@
       <c r="D14" s="2">
         <v>0.57934648215018403</v>
       </c>
+      <c r="E14" s="2">
+        <v>3.4745063769825199E-3</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.4496075287579</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
@@ -724,6 +781,12 @@
       <c r="D16" s="2">
         <v>0.23886388601046199</v>
       </c>
+      <c r="E16" s="2">
+        <v>9.3266412244624401E-3</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2.5281549515086599E-2</v>
+      </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
@@ -735,6 +798,10 @@
       <c r="D17" s="2">
         <v>1.86919895707525E-2</v>
       </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2">
+        <v>9.7676832337900601E-2</v>
+      </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
@@ -746,6 +813,10 @@
       <c r="D18" s="2">
         <v>-3.1925368074106002E-2</v>
       </c>
+      <c r="E18" s="2">
+        <v>-7.3547893941627504E-4</v>
+      </c>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
@@ -757,8 +828,12 @@
       <c r="D19" s="2">
         <v>0.16345998534689399</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="E19" s="6">
+        <v>8.7178606801622295E-3</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.276647078207722</v>
+      </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
@@ -770,14 +845,18 @@
       <c r="D20" s="2">
         <v>0.13737331576439499</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="E20" s="6">
+        <v>4.5693749312024703E-3</v>
+      </c>
+      <c r="F20" s="6">
+        <v>-7.3891189775757201E-3</v>
+      </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
@@ -789,8 +868,10 @@
       <c r="D22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="E22" s="6">
+        <v>-9.8111011413993796E-2</v>
+      </c>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
@@ -802,8 +883,10 @@
       <c r="D23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="E23" s="6">
+        <v>-6.9429115618170806E-2</v>
+      </c>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
@@ -815,12 +898,18 @@
       <c r="D24" s="2">
         <v>0.34117882420115397</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="E24" s="6">
+        <v>9.8382360539173999E-2</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.30262159033928399</v>
+      </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
@@ -832,6 +921,8 @@
       <c r="D26" s="2">
         <v>-1.19620073123588</v>
       </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
@@ -843,6 +934,8 @@
       <c r="D27" s="2">
         <v>1.3296453361863301</v>
       </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
@@ -854,6 +947,8 @@
       <c r="D28" s="2">
         <v>0.40440969683353001</v>
       </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="2:12" ht="18" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
@@ -865,10 +960,14 @@
       <c r="D29" s="2">
         <v>-0.42948580683736498</v>
       </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
@@ -880,7 +979,9 @@
       <c r="D31" s="2">
         <v>-0.23805088103461999</v>
       </c>
-      <c r="L31" s="6"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="L31" s="5"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
@@ -892,8 +993,10 @@
       <c r="D32" s="2">
         <v>0.74785912600592397</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>29</v>
       </c>
@@ -903,8 +1006,10 @@
       <c r="D33" s="2">
         <v>-2.19627416628983E-2</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="2:6" ht="18" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -914,12 +1019,16 @@
       <c r="D34" s="2">
         <v>0.54821753397291095</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C35" s="3"/>
       <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>14</v>
       </c>
@@ -929,8 +1038,12 @@
       <c r="D36" s="2">
         <v>0.27113792383372798</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2">
+        <v>3.6339711298131301E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>15</v>
       </c>
@@ -939,23 +1052,45 @@
         <v>3.4300744714824097E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="2">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="F40">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Analysis/Tables/TableX_Shrinkage.xlsx
+++ b/Analysis/Tables/TableX_Shrinkage.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Table X The averaged coefficients of the predictor variables included in the best subset of models as in Table X. Calculated with shrinkage. NA: parameter was not included in the models</t>
   </si>
@@ -194,18 +194,6 @@
       </rPr>
       <t xml:space="preserve"> x SamCam 3</t>
     </r>
-  </si>
-  <si>
-    <t>Model R²</t>
-  </si>
-  <si>
-    <t>Family</t>
-  </si>
-  <si>
-    <t>Poisson</t>
-  </si>
-  <si>
-    <t>Log-Normal</t>
   </si>
 </sst>
 </file>
@@ -272,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -285,6 +273,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -586,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L41"/>
+  <dimension ref="B2:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1043,54 +1032,22 @@
         <v>3.6339711298131301E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+    <row r="37" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="2">
+      <c r="C37" s="7"/>
+      <c r="D37" s="8">
         <v>3.4300744714824097E-2</v>
       </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C38" s="3"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="F40">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>34</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
